--- a/test/files/set.xlsx
+++ b/test/files/set.xlsx
@@ -396,9 +396,7 @@
         <v>0</v>
       </c>
       <c r="B1"/>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
@@ -426,7 +424,9 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3"/>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
@@ -435,8 +435,8 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4"/>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>2</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
